--- a/docs/admin/CLIENTES/MAX ARTES/Rede Social/Levantamento_Horas_Rede_Social.xlsx
+++ b/docs/admin/CLIENTES/MAX ARTES/Rede Social/Levantamento_Horas_Rede_Social.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>SISTEMA DE ANUNCIOS</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -379,6 +382,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +409,24 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,34 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +744,7 @@
   <dimension ref="B2:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,16 +777,16 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="L2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
@@ -796,18 +799,18 @@
         <v>27</v>
       </c>
       <c r="E3" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8">
         <f>E3*$H$8</f>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+        <v>652.4</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
@@ -824,22 +827,22 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F67" si="0">E4*$H$8</f>
-        <v>656</v>
-      </c>
-      <c r="H4" s="22">
+        <v>652.4</v>
+      </c>
+      <c r="H4" s="15">
         <f>SUM(E3:E110)</f>
-        <v>353</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25">
+        <v>460</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
         <f>H21*L4%</f>
         <v>0</v>
       </c>
-      <c r="N4" s="24"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
@@ -852,18 +855,18 @@
         <v>29</v>
       </c>
       <c r="E5" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+        <v>652.4</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
@@ -876,17 +879,17 @@
         <v>30</v>
       </c>
       <c r="E6" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H6" s="26" t="s">
+        <v>652.4</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
@@ -899,15 +902,15 @@
         <v>31</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+        <v>489.29999999999995</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
@@ -920,17 +923,17 @@
         <v>33</v>
       </c>
       <c r="E8" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H8" s="13">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+        <v>652.4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
@@ -943,15 +946,15 @@
         <v>34</v>
       </c>
       <c r="E9" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+        <v>489.29999999999995</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
@@ -964,17 +967,17 @@
         <v>35</v>
       </c>
       <c r="E10" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H10" s="19" t="s">
+        <v>489.29999999999995</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -987,18 +990,18 @@
         <v>36</v>
       </c>
       <c r="E11" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H11" s="13">
+        <v>489.29999999999995</v>
+      </c>
+      <c r="H11" s="16">
         <f>H8*H4</f>
-        <v>11578.4</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+        <v>15005.199999999999</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
@@ -1011,15 +1014,15 @@
         <v>37</v>
       </c>
       <c r="E12" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+        <v>489.29999999999995</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -1032,11 +1035,11 @@
         <v>38</v>
       </c>
       <c r="E13" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
+        <v>652.4</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1050,17 +1053,17 @@
         <v>39</v>
       </c>
       <c r="E14" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>262.39999999999998</v>
-      </c>
-      <c r="H14" s="22" t="s">
+        <v>326.2</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
@@ -1073,15 +1076,15 @@
         <v>40</v>
       </c>
       <c r="E15" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+        <v>652.4</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
@@ -1098,16 +1101,15 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>1475.9999999999998</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
-        <f>H11*H16%</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="22"/>
+        <v>1467.8999999999999</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
@@ -1120,15 +1122,15 @@
         <v>42</v>
       </c>
       <c r="E17" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>983.99999999999989</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+        <v>1630.9999999999998</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
@@ -1141,11 +1143,11 @@
         <v>43</v>
       </c>
       <c r="E18" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>1475.9999999999998</v>
+        <v>1630.9999999999998</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1162,17 +1164,17 @@
         <v>44</v>
       </c>
       <c r="E19" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H19" s="22" t="s">
+        <v>652.4</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
@@ -1185,15 +1187,15 @@
         <v>46</v>
       </c>
       <c r="E20" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="0"/>
-        <v>1639.9999999999998</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+        <v>2283.3999999999996</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
@@ -1206,12 +1208,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="31">
         <f>H11-I16</f>
-        <v>11578.4</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+        <v>14999.999999999998</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
@@ -1224,9 +1226,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
@@ -2286,6 +2288,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="M4:N5"/>
     <mergeCell ref="L4:L5"/>
@@ -2293,13 +2302,6 @@
     <mergeCell ref="H8:J9"/>
     <mergeCell ref="H6:J7"/>
     <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/docs/admin/CLIENTES/MAX ARTES/Rede Social/Levantamento_Horas_Rede_Social.xlsx
+++ b/docs/admin/CLIENTES/MAX ARTES/Rede Social/Levantamento_Horas_Rede_Social.xlsx
@@ -379,6 +379,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +406,24 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,34 +433,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +741,7 @@
   <dimension ref="B2:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,16 +774,16 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="L2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
@@ -796,18 +796,18 @@
         <v>27</v>
       </c>
       <c r="E3" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8">
         <f>E3*$H$8</f>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+        <v>656</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
@@ -820,26 +820,26 @@
         <v>28</v>
       </c>
       <c r="E4" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F67" si="0">E4*$H$8</f>
-        <v>656</v>
-      </c>
-      <c r="H4" s="22">
+        <v>819.99999999999989</v>
+      </c>
+      <c r="H4" s="15">
         <f>SUM(E3:E110)</f>
-        <v>353</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25">
+        <v>457</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
         <f>H21*L4%</f>
         <v>0</v>
       </c>
-      <c r="N4" s="24"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
@@ -852,18 +852,18 @@
         <v>29</v>
       </c>
       <c r="E5" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+        <v>656</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
@@ -876,17 +876,17 @@
         <v>30</v>
       </c>
       <c r="E6" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H6" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
@@ -899,15 +899,15 @@
         <v>31</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
@@ -920,17 +920,17 @@
         <v>33</v>
       </c>
       <c r="E8" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H8" s="13">
+        <v>656</v>
+      </c>
+      <c r="H8" s="16">
         <v>32.799999999999997</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
@@ -943,15 +943,15 @@
         <v>34</v>
       </c>
       <c r="E9" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
@@ -964,17 +964,17 @@
         <v>35</v>
       </c>
       <c r="E10" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H10" s="19" t="s">
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -987,18 +987,18 @@
         <v>36</v>
       </c>
       <c r="E11" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H11" s="13">
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H11" s="16">
         <f>H8*H4</f>
-        <v>11578.4</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+        <v>14989.599999999999</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
@@ -1011,15 +1011,15 @@
         <v>37</v>
       </c>
       <c r="E12" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -1032,11 +1032,11 @@
         <v>38</v>
       </c>
       <c r="E13" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1050,17 +1050,17 @@
         <v>39</v>
       </c>
       <c r="E14" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>262.39999999999998</v>
-      </c>
-      <c r="H14" s="22" t="s">
+        <v>491.99999999999994</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
@@ -1073,15 +1073,15 @@
         <v>40</v>
       </c>
       <c r="E15" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+        <v>819.99999999999989</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
@@ -1094,20 +1094,20 @@
         <v>41</v>
       </c>
       <c r="E16" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>1475.9999999999998</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
+        <v>1639.9999999999998</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
         <f>H11*H16%</f>
         <v>0</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
@@ -1120,15 +1120,15 @@
         <v>42</v>
       </c>
       <c r="E17" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>983.99999999999989</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+        <v>1148</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
@@ -1162,17 +1162,17 @@
         <v>44</v>
       </c>
       <c r="E19" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
-      </c>
-      <c r="H19" s="22" t="s">
+        <v>983.99999999999989</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
@@ -1185,15 +1185,15 @@
         <v>46</v>
       </c>
       <c r="E20" s="6">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="0"/>
-        <v>1639.9999999999998</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+        <v>1869.6</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
@@ -1206,12 +1206,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="31">
         <f>H11-I16</f>
-        <v>11578.4</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+        <v>14989.599999999999</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
@@ -1224,9 +1224,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
@@ -2286,6 +2286,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="M4:N5"/>
     <mergeCell ref="L4:L5"/>
@@ -2293,13 +2300,6 @@
     <mergeCell ref="H8:J9"/>
     <mergeCell ref="H6:J7"/>
     <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
